--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -1098,8 +1098,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1235,8 +1234,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1512,8 +1510,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1649,9 +1646,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1865,8 +1860,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1901,9 +1895,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1992,8 +1984,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2082,9 +2073,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional information about trees on the site, including condition concerns, 
-damage reports, and supporting documentation
-</t>
+          <t>Further details of any issues relating to trees on the site</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2181,8 +2170,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Location information for trees affected by the proposed works, required when the site is different from the applicant's address
-</t>
+          <t>Where trees affected by the proposed development are located.</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -2496,8 +2484,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of trees affected by the proposed works
-</t>
+          <t>Who owns any trees affected by the proposed development.</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -2820,9 +2807,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of trees and proposed work to them, including identification, 
-species and work descriptions
-</t>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -711,7 +711,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -506,10 +506,14 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
@@ -533,10 +537,14 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
@@ -560,10 +568,14 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
@@ -587,10 +599,14 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
@@ -614,10 +630,14 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
@@ -641,10 +661,14 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
@@ -668,15 +692,19 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -699,15 +727,19 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -730,15 +762,19 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -761,15 +797,19 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -792,20 +832,24 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
@@ -827,20 +871,24 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
@@ -862,20 +910,24 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
@@ -897,20 +949,24 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
@@ -932,20 +988,24 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
@@ -967,20 +1027,24 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
@@ -1002,15 +1066,19 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1033,15 +1101,19 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1064,15 +1136,19 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,7 +1473,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1491,18 +1487,14 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1526,19 +1518,19 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1548,58 +1540,58 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1623,14 +1615,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1655,18 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1680,51 +1676,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1732,14 +1724,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1768,13 +1764,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1803,13 +1799,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1838,13 +1834,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1873,13 +1869,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1889,32 +1885,32 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1924,24 +1920,24 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,12 +1945,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1964,19 +1960,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1984,17 +1972,17 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2003,7 +1991,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2011,7 +1999,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2026,11 +2014,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2038,7 +2034,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2048,24 +2044,16 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,12 +2061,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2092,7 +2080,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,12 +2088,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2115,11 +2103,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Further details of any issues relating to trees on the site</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Advice from authority</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2127,7 +2123,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2137,32 +2133,28 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Further details of any issues relating to trees on the site</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2172,7 +2164,7 @@
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2186,14 +2178,14 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2208,28 +2200,32 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Trees location</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Where trees affected by the proposed development are located.</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is site different</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the site where trees are located is different from the applicant's address</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2239,37 +2235,33 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Trees location</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Where trees affected by the proposed development are located.</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Is site different</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Whether the site where trees are located is different from the applicant's address</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2283,19 +2275,19 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2314,14 +2306,14 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2345,19 +2337,19 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2376,14 +2368,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2407,14 +2399,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2438,14 +2430,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2469,19 +2461,19 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2500,14 +2492,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2522,68 +2514,72 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Trees ownership</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Who owns any trees affected by the proposed development.</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Is applicant owner</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Whether the applicant owns the trees affected by the proposed works</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Trees ownership</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Who owns any trees affected by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Is applicant owner</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>Tree owner[]</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns the trees affected by the proposed works</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2602,13 +2598,13 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2618,7 +2614,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2637,13 +2633,13 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2672,13 +2668,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2707,13 +2703,13 @@
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2723,7 +2719,7 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2737,18 +2733,18 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2758,7 +2754,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2777,13 +2773,17 @@
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2837,66 +2837,58 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Identification of tree(s) and description of works</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Tree owner[]</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Identification of tree(s) and description of works</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr"/>
+          <t>Tree details[]</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
+          <t>Identifier for the tree, use the TPO identifier if applicable</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2920,14 +2912,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the tree, use the TPO identifier if applicable</t>
+          <t>The species of the tree</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2937,7 +2929,7 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2943,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Description of works</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>The species of the tree</t>
+          <t>Description of the nature of the work to be carried out on this tree</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2967,37 +2959,6 @@
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Tree details[]</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Description of works</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Description of the nature of the work to be carried out on this tree</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3005,30 +2966,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,19 +1479,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1509,58 +1501,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1584,14 +1576,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1620,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1641,51 +1637,47 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1693,14 +1685,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1729,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1799,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1834,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1850,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1885,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1925,19 +1921,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1945,17 +1933,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1952,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1972,7 +1960,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1987,11 +1975,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1999,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2009,24 +2005,16 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,12 +2022,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2053,7 +2041,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,12 +2049,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2076,11 +2064,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Further details of any issues relating to trees on the site</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Advice from authority</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2088,7 +2084,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2098,32 +2094,28 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Further details of any issues relating to trees on the site</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2133,7 +2125,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2147,14 +2139,14 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2169,28 +2161,32 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Trees location</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Where trees affected by the proposed development are located.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Is site different</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether the site where trees are located is different from the applicant's address</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2200,37 +2196,33 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Trees location</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Where trees affected by the proposed development are located.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Is site different</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Whether the site where trees are located is different from the applicant's address</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2244,19 +2236,19 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2275,14 +2267,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2306,19 +2298,19 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2337,14 +2329,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2368,14 +2360,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2399,14 +2391,14 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2430,19 +2422,19 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2461,14 +2453,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2483,68 +2475,72 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Trees ownership</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Who owns any trees affected by the proposed development.</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Is applicant owner</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Whether the applicant owns the trees affected by the proposed works</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Trees ownership</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Who owns any trees affected by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Is applicant owner</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
+          <t>Tree owner[]</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Whether the applicant owns the trees affected by the proposed works</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2563,13 +2559,13 @@
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2579,7 +2575,7 @@
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2598,13 +2594,13 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2633,13 +2629,13 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2668,13 +2664,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2684,7 +2680,7 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2698,18 +2694,18 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2719,7 +2715,7 @@
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2738,13 +2734,17 @@
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2778,17 +2778,17 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -2798,66 +2798,58 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Identification of tree(s) and description of works</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Tree owner[]</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Identification of tree(s) and description of works</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees affected by the proposed development and what work is being done to them.</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr"/>
+          <t>Tree details[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Description of work applicant wishes to carry out, including identifying the trees, species and setting out the work</t>
+          <t>Identifier for the tree, use the TPO identifier if applicable</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2881,14 +2873,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Identifier for the tree, use the TPO identifier if applicable</t>
+          <t>The species of the tree</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2898,7 +2890,7 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2912,14 +2904,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Description of works</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>The species of the tree</t>
+          <t>Description of the nature of the work to be carried out on this tree</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2928,37 +2920,6 @@
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Tree details[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Description of works</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Description of the nature of the work to be carried out on this tree</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2966,30 +2927,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1479,19 +1483,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,58 +1505,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1576,18 +1580,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1616,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1637,47 +1637,51 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1685,18 +1689,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1795,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1846,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1881,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1906,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1921,11 +1921,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1933,17 +1941,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1960,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1960,7 +1968,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1975,19 +1983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2005,16 +2005,24 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2022,12 +2030,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2041,7 +2049,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2049,12 +2057,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2064,19 +2072,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Trees additional information</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Further details of any issues relating to trees on the site</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Advice from authority</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2094,28 +2094,32 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Trees additional information</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Further details of any issues relating to trees on the site</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Advice from authority</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Any advice provided on-site by a Local Planning Authority (LPA) officer</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2125,7 +2129,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2139,14 +2143,14 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2927,30 +2931,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="B51:B60"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B36:B41"/>
     <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
+++ b/generated/spreadsheet/notification-of-proposed-works-to-trees-in-a-conservation-area-notice-trees-in-con-area.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
